--- a/projects/test_building/input/ID_HeatingSystem.xlsx
+++ b/projects/test_building/input/ID_HeatingSystem.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E2698E-14B5-8E4B-9863-D3D9AB7E0630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="22260" windowHeight="12640"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,18 +30,6 @@
     <t>German</t>
   </si>
   <si>
-    <t>Fernheizun</t>
-  </si>
-  <si>
-    <t>Etagenheiz</t>
-  </si>
-  <si>
-    <t>Einzel-/Me</t>
-  </si>
-  <si>
-    <t>Zentralhei and Blockheizu</t>
-  </si>
-  <si>
     <t>central/block heating</t>
   </si>
   <si>
@@ -53,12 +40,24 @@
   </si>
   <si>
     <t>id_heating_system</t>
+  </si>
+  <si>
+    <t>Fernwärme</t>
+  </si>
+  <si>
+    <t>Zentralheizung and Blockheizung</t>
+  </si>
+  <si>
+    <t>Etagenheizung</t>
+  </si>
+  <si>
+    <t>Einzel-/Mehrofenheizung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -108,12 +107,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C5" totalsRowShown="0">
-  <autoFilter ref="A1:C5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C5" totalsRowShown="0">
+  <autoFilter ref="A1:C5"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id_heating_system"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="name"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="German"/>
+    <tableColumn id="1" name="id_heating_system"/>
+    <tableColumn id="2" name="name"/>
+    <tableColumn id="3" name="German"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -381,22 +380,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="51.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -405,7 +404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -413,40 +412,40 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
